--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="111">
   <si>
     <t>Երկուշաբթի</t>
   </si>
@@ -682,9 +682,6 @@
     <t>1015-1</t>
   </si>
   <si>
-    <t xml:space="preserve">0613-1 </t>
-  </si>
-  <si>
     <t>0421-1</t>
   </si>
   <si>
@@ -704,6 +701,12 @@
   </si>
   <si>
     <t>1013-3</t>
+  </si>
+  <si>
+    <t>1015-2</t>
+  </si>
+  <si>
+    <t>0613-1</t>
   </si>
 </sst>
 </file>
@@ -2027,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2064,13 +2067,13 @@
         <v>101</v>
       </c>
       <c r="E1" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="78" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="79" t="s">
         <v>51</v>
@@ -2082,31 +2085,31 @@
         <v>78</v>
       </c>
       <c r="K1" s="117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L1" s="118" t="s">
         <v>79</v>
       </c>
       <c r="M1" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="120" t="s">
+      <c r="O1" s="189" t="s">
         <v>106</v>
-      </c>
-      <c r="O1" s="189" t="s">
-        <v>107</v>
       </c>
       <c r="P1" s="190" t="s">
         <v>81</v>
       </c>
       <c r="Q1" s="187" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R1" s="190" t="s">
         <v>83</v>
       </c>
       <c r="S1" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75">
